--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menghan/Documents/PaperIdeas/Yining/water_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0953DC0-4031-8648-898E-C1CE987421F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47C0E0-DB26-4B4F-AAF1-85C133A28DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="500" windowWidth="29180" windowHeight="20340" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
+    <workbookView xWindow="2120" yWindow="780" windowWidth="29180" windowHeight="20340" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastern" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,10 @@
     <t>Subsurface runoff</t>
   </si>
   <si>
-    <t>Easter</t>
-  </si>
-  <si>
     <t>Central</t>
+  </si>
+  <si>
+    <t>Eastern</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F6219-047C-134A-8547-629CC30498DE}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>48</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD931-2D2D-1C4F-B410-2E2F2A138743}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:C52"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA40AFC-1639-354F-B3D7-4F1491ECA208}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menghan/Documents/PaperIdeas/Yining/water_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47C0E0-DB26-4B4F-AAF1-85C133A28DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F45FF8-13D6-A541-B1C2-AFCE4CDAFB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="780" windowWidth="29180" windowHeight="20340" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
+    <workbookView xWindow="27780" yWindow="-27060" windowWidth="29180" windowHeight="20340" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastern" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="64">
   <si>
     <t>G1</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Eastern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmer drought severity index </t>
+  </si>
+  <si>
+    <t>standardized precipitation evapotranspiration index</t>
+  </si>
+  <si>
+    <t>self-calibrating Palmer drought severity index</t>
   </si>
 </sst>
 </file>
@@ -741,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F6219-047C-134A-8547-629CC30498DE}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,6 +2035,9 @@
       <c r="B50" t="s">
         <v>49</v>
       </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
@@ -2038,11 +2050,17 @@
       <c r="B52" s="22" t="s">
         <v>53</v>
       </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="22" t="s">
         <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,7 +2100,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,7 +3384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA40AFC-1639-354F-B3D7-4F1491ECA208}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menghan/Documents/PaperIdeas/Yining/water_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F45FF8-13D6-A541-B1C2-AFCE4CDAFB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50037C84-563F-FB43-960B-94F55E52B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="-27060" windowWidth="29180" windowHeight="20340" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
+    <workbookView xWindow="-7380" yWindow="-28300" windowWidth="40840" windowHeight="25880" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastern" sheetId="1" r:id="rId1"/>
     <sheet name="Central" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="74">
   <si>
     <t>G1</t>
   </si>
@@ -230,6 +230,36 @@
   </si>
   <si>
     <t>self-calibrating Palmer drought severity index</t>
+  </si>
+  <si>
+    <t>共线性</t>
+  </si>
+  <si>
+    <t>imbalance</t>
+  </si>
+  <si>
+    <t>试一下其他的模型</t>
+  </si>
+  <si>
+    <t>去掉3个干旱指数</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>all 是不是可以合并</t>
+  </si>
+  <si>
+    <t>3年平均值</t>
+  </si>
+  <si>
+    <t>看一下变量之间相关性</t>
+  </si>
+  <si>
+    <t>预测未来</t>
   </si>
 </sst>
 </file>
@@ -388,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -401,7 +431,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -410,10 +439,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,16 +777,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F6219-047C-134A-8547-629CC30498DE}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="167" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1840,177 +1871,177 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>24</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>25</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>26</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" t="s">
         <v>40</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>27</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>28</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2018,19 +2049,28 @@
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" t="s">
         <v>49</v>
@@ -2038,40 +2078,55 @@
       <c r="C50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" t="s">
         <v>58</v>
@@ -2080,10 +2135,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" t="s">
         <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2099,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD931-2D2D-1C4F-B410-2E2F2A138743}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A33" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,34 +3247,34 @@
       <c r="A42">
         <v>24</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3216,34 +3282,34 @@
       <c r="A43">
         <v>25</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3251,34 +3317,34 @@
       <c r="A44">
         <v>26</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3286,34 +3352,34 @@
       <c r="A45">
         <v>27</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" t="s">
         <v>43</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3321,34 +3387,34 @@
       <c r="A46">
         <v>28</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3384,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA40AFC-1639-354F-B3D7-4F1491ECA208}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A37" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4393,31 +4459,31 @@
       <c r="A42">
         <v>24</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4425,31 +4491,31 @@
       <c r="A43">
         <v>25</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4457,31 +4523,31 @@
       <c r="A44">
         <v>26</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4489,31 +4555,31 @@
       <c r="A45">
         <v>27</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" t="s">
         <v>42</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4521,31 +4587,31 @@
       <c r="A46">
         <v>28</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menghan/Documents/PaperIdeas/Yining/water_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50037C84-563F-FB43-960B-94F55E52B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54C895-61CA-7D47-A967-3BFA25C03DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="-28300" windowWidth="40840" windowHeight="25880" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
+    <workbookView xWindow="10920" yWindow="-26580" windowWidth="39540" windowHeight="25880" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastern" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F6219-047C-134A-8547-629CC30498DE}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="167" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
